--- a/RAAL/Production/Results/Results_Production_xgb_RAAL_wm.xlsx
+++ b/RAAL/Production/Results/Results_Production_xgb_RAAL_wm.xlsx
@@ -360,7 +360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1323,6 +1323,116 @@
         <v>0.007000000216066837</v>
       </c>
     </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88" s="2">
+        <v>0.007000000216066837</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" s="2">
+        <v>0.007000000216066837</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90" s="2">
+        <v>0.007000000216066837</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="C91" s="2">
+        <v>0.007000000216066837</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B92">
+        <v>4</v>
+      </c>
+      <c r="C92" s="2">
+        <v>0.007000000216066837</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B93">
+        <v>5</v>
+      </c>
+      <c r="C93" s="2">
+        <v>0.007000000216066837</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B94">
+        <v>6</v>
+      </c>
+      <c r="C94" s="2">
+        <v>0.06599999964237213</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B95">
+        <v>7</v>
+      </c>
+      <c r="C95" s="2">
+        <v>0.8109999895095825</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B96">
+        <v>8</v>
+      </c>
+      <c r="C96" s="2">
+        <v>1.927999973297119</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B97">
+        <v>9</v>
+      </c>
+      <c r="C97" s="2">
+        <v>3.059000015258789</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
